--- a/backend/pose/output/right-shoulder-angle-a_angles.xlsx
+++ b/backend/pose/output/right-shoulder-angle-a_angles.xlsx
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
